--- a/Scrapy for DB/xpath_flipkart_plp.xlsx
+++ b/Scrapy for DB/xpath_flipkart_plp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>KPI</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>productname</t>
-  </si>
-  <si>
-    <t>productprice</t>
   </si>
 </sst>
 </file>
@@ -122,7 +119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -134,7 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -166,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -174,20 +171,26 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -497,18 +500,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="69.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="69.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -519,9 +522,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -531,19 +534,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -551,25 +554,13 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,12 +578,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="69.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="69.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -602,10 +593,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -614,58 +605,58 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
@@ -674,10 +665,10 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
@@ -686,10 +677,10 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
@@ -698,10 +689,10 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
@@ -710,10 +701,10 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
@@ -722,46 +713,46 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A12" s="6" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="6">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A13" s="6" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="6">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="6">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
